--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Russia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Russia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G364"/>
+  <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9551,6 +9551,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>ECONOMICS:RUM2</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>84813400000000</v>
+      </c>
+      <c r="D365" t="n">
+        <v>84813400000000</v>
+      </c>
+      <c r="E365" t="n">
+        <v>84813400000000</v>
+      </c>
+      <c r="F365" t="n">
+        <v>84813400000000</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>ECONOMICS:RUM2</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>84636000000000</v>
+      </c>
+      <c r="D366" t="n">
+        <v>84636000000000</v>
+      </c>
+      <c r="E366" t="n">
+        <v>84636000000000</v>
+      </c>
+      <c r="F366" t="n">
+        <v>84636000000000</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>ECONOMICS:RUM2</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>86197300000000</v>
+      </c>
+      <c r="D367" t="n">
+        <v>86197300000000</v>
+      </c>
+      <c r="E367" t="n">
+        <v>86197300000000</v>
+      </c>
+      <c r="F367" t="n">
+        <v>86197300000000</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Russia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Russia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G367"/>
+  <dimension ref="A1:G368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -9623,6 +9623,31 @@
         <v>86197300000000</v>
       </c>
       <c r="G367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>ECONOMICS:RUM2</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>87276500000000</v>
+      </c>
+      <c r="D368" t="n">
+        <v>87276500000000</v>
+      </c>
+      <c r="E368" t="n">
+        <v>87276500000000</v>
+      </c>
+      <c r="F368" t="n">
+        <v>87276500000000</v>
+      </c>
+      <c r="G368" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Russia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Russia_M2.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Russia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Russia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G368"/>
+  <dimension ref="A1:G371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9651,6 +9651,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>ECONOMICS:RUM2</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>88294000000000</v>
+      </c>
+      <c r="D369" t="n">
+        <v>88294000000000</v>
+      </c>
+      <c r="E369" t="n">
+        <v>88294000000000</v>
+      </c>
+      <c r="F369" t="n">
+        <v>88294000000000</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>ECONOMICS:RUM2</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>90110900000000</v>
+      </c>
+      <c r="D370" t="n">
+        <v>90110900000000</v>
+      </c>
+      <c r="E370" t="n">
+        <v>90110900000000</v>
+      </c>
+      <c r="F370" t="n">
+        <v>90110900000000</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>ECONOMICS:RUM2</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>90597300000000</v>
+      </c>
+      <c r="D371" t="n">
+        <v>90597300000000</v>
+      </c>
+      <c r="E371" t="n">
+        <v>90597300000000</v>
+      </c>
+      <c r="F371" t="n">
+        <v>90597300000000</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Russia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Russia_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G371"/>
+  <dimension ref="A1:G372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8940,6 +8940,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B372" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372">
+        <v>91134700000000</v>
+      </c>
+      <c r="D372">
+        <v>91134700000000</v>
+      </c>
+      <c r="E372">
+        <v>91134700000000</v>
+      </c>
+      <c r="F372">
+        <v>91134700000000</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
